--- a/cpu_data.xlsx
+++ b/cpu_data.xlsx
@@ -8258,46 +8258,40 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AMD APU系列 A6-7480</t>
+          <t>Intel 酷睿 i9 13900KS</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>APU A6</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Carrizo</t>
-        </is>
-      </c>
+          <t>酷睿i9 13代系列</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>3.5GHz</t>
+          <t>3.2GHz</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>二核心二线程</t>
+          <t>二十四核心/三十二线程</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>45W</t>
+          <t>150W</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>AMD Radeon R5</t>
+          <t>Intel UHD Graphics 770</t>
         </is>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I134" t="n">
+        <v>4799</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -8308,10 +8302,10 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -8320,23 +8314,23 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 8700G</t>
+          <t>Intel 酷睿 i5 13490F</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 8000系列</t>
+          <t>酷睿i5 13代系列</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4.2GHz</t>
+          <t>2.5GHz</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>8核心/16线程</t>
+          <t>10核心/16线程</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -8344,16 +8338,12 @@
           <t>65W</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>AMD Radeon&amp;nbsp;780M</t>
-        </is>
-      </c>
+      <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>2499</v>
+        <v>1199</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -8367,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -8376,36 +8366,42 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i9 14900KF</t>
+          <t>AMD Ryzen 5 7600</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>酷睿i9 14代系列</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Raptor Lake</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>AMD Ryzen 5 7000系列</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.8GHz</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>24核心/32线程</t>
+          <t>六核心/十二线程</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>125W</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr"/>
+          <t>65W</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>AMD Radeon Graphics</t>
+        </is>
+      </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>2999</v>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -8419,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -8428,40 +8424,36 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AMD Ryzen  5 8600G</t>
+          <t>Intel 酷睿 i7 13700KF</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 8000系列</t>
+          <t>酷睿i7 13代系列</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4.3GHz</t>
+          <t>3.4GHz</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>6核心/12线程</t>
+          <t>十六核心/二十四线程</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>65W</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>AMD Radeon&amp;nbsp;760M</t>
-        </is>
-      </c>
+          <t>125W</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1699</v>
+        <v>2399</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -8475,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -8484,40 +8476,38 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i9 14900KS</t>
+          <t>Intel 酷睿 i9 13900F</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>酷睿i9 14代系列</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Raptor Lake</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>酷睿i9 13代系列</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2GHz</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>24核心/32线程</t>
+          <t>二十四核心/三十二线程</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>150W</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Intel UHD Graphics 770</t>
-        </is>
-      </c>
+          <t>65W</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>5499</v>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -8531,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -8540,55 +8530,53 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Intel 酷睿i3 6100</t>
+          <t>AMD FX-8370</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>酷睿i3 6代系列</t>
+          <t>FX</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Skylake</t>
+          <t>Vishera</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3.7GHz</t>
+          <t>4GHz</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>双核心/四线程</t>
+          <t>八核心/八线程</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>51W</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Intel HD Graphics 530</t>
-        </is>
-      </c>
+          <t>125W</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>70</v>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="K139" t="n">
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
@@ -8600,31 +8588,39 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AMD 速龙 X4 880K</t>
+          <t>AMD APU系列 A6-7480</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>速龙 X4</t>
+          <t>APU A6</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Godavari</t>
+          <t>Carrizo</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4GHz</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+          <t>3.5GHz</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>二核心二线程</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>95W</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
+          <t>45W</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>AMD Radeon R5</t>
+        </is>
+      </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
@@ -8642,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
@@ -8716,17 +8712,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AMD Ryzen 9 7900</t>
+          <t>Intel 酷睿i3 6100</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AMD Ryzen 9 7000系列</t>
+          <t>酷睿i3 6代系列</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Zen 4</t>
+          <t>Skylake</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -8736,40 +8732,38 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>十二核心/二十四线程</t>
+          <t>双核心/四线程</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>65W</t>
+          <t>51W</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>AMD Radeon Graphics</t>
+          <t>Intel HD Graphics 530</t>
         </is>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I142" t="n">
+        <v>70</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="K142" t="n">
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="M142" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -8778,19 +8772,23 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i5 14600KF</t>
+          <t>Intel 酷睿 i9 13900KF</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>酷睿i5 14代系列</t>
+          <t>酷睿i9 13代系列</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3GHz</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>14核心/20线程</t>
+          <t>二十四核心/三十二线程</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -8803,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1499</v>
+        <v>2788</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -8817,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -8826,38 +8824,40 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i9 13900F</t>
+          <t>Intel 酷睿 i9 14900KS</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>酷睿i9 13代系列</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2GHz</t>
-        </is>
-      </c>
+          <t>酷睿i9 14代系列</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Raptor Lake</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>二十四核心/三十二线程</t>
+          <t>24核心/32线程</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>65W</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
+          <t>150W</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Intel UHD Graphics 770</t>
+        </is>
+      </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I144" t="n">
+        <v>5499</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -8880,35 +8880,31 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AMD FX-8370</t>
+          <t>Intel 酷睿 i5 14400</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FX</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Vishera</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>4GHz</t>
-        </is>
-      </c>
+          <t>酷睿i5 14代系列</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>八核心/八线程</t>
+          <t>10核心/16线程</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>125W</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr"/>
+          <t>65W</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Intel UHD Graphics 730</t>
+        </is>
+      </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
@@ -8926,10 +8922,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -8938,23 +8934,23 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i9 13900</t>
+          <t>Intel 酷睿 i5 13400</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>酷睿i9 13代系列</t>
+          <t>酷睿i5 13代系列</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2GHz</t>
+          <t>2.5GHz</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>二十四核心/三十二线程</t>
+          <t>十核心/十六线程</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -8964,16 +8960,14 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Intel UHD Graphics 770</t>
+          <t>Intel UHD Graphics 730</t>
         </is>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I146" t="n">
+        <v>1179</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -8987,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -8996,50 +8990,60 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i5 13400F</t>
+          <t>Intel 奔腾 G4500</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>酷睿i5 13代系列</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>奔腾双核</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Skylake</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.5GHz</t>
+          <t>3.5GHz</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>十核心/十六线程</t>
+          <t>双核心/双线程</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>65W</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+          <t>51W</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Intel HD Graphics 530</t>
+        </is>
+      </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1249</v>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="K147" t="n">
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="M147" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -9048,19 +9052,23 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i5 14400</t>
+          <t>AMD Ryzen 7 8700G</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>酷睿i5 14代系列</t>
+          <t>AMD Ryzen 7 8000系列</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4.2GHz</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>10核心/16线程</t>
+          <t>8核心/16线程</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -9070,16 +9078,14 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Intel UHD Graphics 730</t>
+          <t>AMD Radeon&amp;nbsp;780M</t>
         </is>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I148" t="n">
+        <v>2499</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -9093,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -9102,36 +9108,46 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i5 13600KF</t>
+          <t>AMD Ryzen 9 7900</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>酷睿i5 13代系列</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>AMD Ryzen 9 7000系列</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Zen 4</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>3.5GHz</t>
+          <t>3.7GHz</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>十四核心/二十线程</t>
+          <t>十二核心/二十四线程</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>125W</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
+          <t>65W</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>AMD Radeon Graphics</t>
+        </is>
+      </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1449</v>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -9145,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -9154,42 +9170,36 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 7600</t>
+          <t>Intel 酷睿 i9 14900KF</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 7000系列</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>3.8GHz</t>
-        </is>
-      </c>
+          <t>酷睿i9 14代系列</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Raptor Lake</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>六核心/十二线程</t>
+          <t>24核心/32线程</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>65W</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>AMD Radeon Graphics</t>
-        </is>
-      </c>
+          <t>125W</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I150" t="n">
+        <v>2999</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -9203,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
@@ -9212,36 +9222,40 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i5 13490F</t>
+          <t>Intel 酷睿 Ultra 5 245K</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>酷睿i5 13代系列</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2.5GHz</t>
-        </is>
-      </c>
+          <t>酷睿 Ultra 5 200系列</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Arrow Lake</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>10核心/16线程</t>
+          <t>14核心/14线程</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>65W</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
+          <t>125W</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Intel Graphics</t>
+        </is>
+      </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1199</v>
+        <v>2449</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -9255,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N151" t="n">
         <v>0</v>
@@ -9264,44 +9278,36 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AMD Ryzen 9 7900X3D</t>
+          <t>Intel 酷睿 i5 13600KF</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMD Ryzen 9 7000系列</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Zen 4</t>
-        </is>
-      </c>
+          <t>酷睿i5 13代系列</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4.4GHz</t>
+          <t>3.5GHz</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>十二核心/二十四线程</t>
+          <t>十四核心/二十线程</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>120W</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>AMD Radeon Graphics</t>
-        </is>
-      </c>
+          <t>125W</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>2899</v>
+        <v>1449</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -9315,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -9372,40 +9378,44 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Intel 酷睿 Ultra 5 245K</t>
+          <t>AMD Ryzen 9 7900X3D</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>酷睿 Ultra 5 200系列</t>
+          <t>AMD Ryzen 9 7000系列</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Arrow Lake</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>Zen 4</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4.4GHz</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>14核心/14线程</t>
+          <t>十二核心/二十四线程</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>125W</t>
+          <t>120W</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Intel Graphics</t>
+          <t>AMD Radeon Graphics</t>
         </is>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>2449</v>
+        <v>2899</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -9419,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="N154" t="n">
         <v>0</v>
@@ -9428,60 +9438,54 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Intel 奔腾 G4500</t>
+          <t>AMD Ryzen 5 7500F</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>奔腾双核</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Skylake</t>
-        </is>
-      </c>
+          <t>AMD Ryzen 5 7000系列</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>3.5GHz</t>
+          <t>3.7GHz</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>双核心/双线程</t>
+          <t>六核心/十二线程</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>51W</t>
+          <t>65W</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Intel HD Graphics 530</t>
+          <t>AMD Radeon Graphics</t>
         </is>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I155" t="n">
+        <v>999</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="K155" t="n">
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -9550,42 +9554,36 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AMD FX-6330</t>
+          <t>Intel 酷睿 i5 13400F</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FX</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Vishera</t>
-        </is>
-      </c>
+          <t>酷睿i5 13代系列</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>3.6GHz</t>
+          <t>2.5GHz</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>六核心/六线程</t>
+          <t>十核心/十六线程</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>95W</t>
+          <t>65W</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I157" t="n">
+        <v>1249</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -9596,10 +9594,10 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
@@ -9608,46 +9606,32 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AMD A10-7870K</t>
+          <t>Intel 酷睿 i5 14600KF</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>APU A10</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Godavari</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>3.9GHz</t>
-        </is>
-      </c>
+          <t>酷睿i5 14代系列</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>四核心/四线程</t>
+          <t>14核心/20线程</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>95W</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>AMD Radeon R7</t>
-        </is>
-      </c>
+          <t>125W</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I158" t="n">
+        <v>1499</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -9658,10 +9642,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -9670,40 +9654,38 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 7500F</t>
+          <t>AMD 速龙 X4 880K</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 7000系列</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
+          <t>速龙 X4</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Godavari</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3.7GHz</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>六核心/十二线程</t>
-        </is>
-      </c>
+          <t>4GHz</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>65W</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>AMD Radeon Graphics</t>
-        </is>
-      </c>
+          <t>95W</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>999</v>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -9714,10 +9696,10 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M159" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
@@ -9726,36 +9708,42 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i7 13700KF</t>
+          <t>AMD A10-7890K</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>酷睿i7 13代系列</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
+          <t>APU A10</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Godavari</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>3.4GHz</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>十六核心/二十四线程</t>
-        </is>
-      </c>
+          <t>4.1GHz</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>125W</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>95W</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>AMD Radeon R7</t>
+        </is>
+      </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>2399</v>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -9766,10 +9754,10 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="M160" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -9778,40 +9766,40 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i9 13900KS</t>
+          <t>AMD Ryzen  5 8600G</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>酷睿i9 13代系列</t>
+          <t>AMD Ryzen 5 8000系列</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>3.2GHz</t>
+          <t>4.3GHz</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>二十四核心/三十二线程</t>
+          <t>6核心/12线程</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>150W</t>
+          <t>65W</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Intel UHD Graphics 770</t>
+          <t>AMD Radeon&amp;nbsp;760M</t>
         </is>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>4799</v>
+        <v>1699</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -9825,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
@@ -9834,24 +9822,32 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AMD 速龙 X4 850</t>
+          <t>AMD FX-6330</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>速龙 X4</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Vishera</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>3.2GHz</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
+          <t>3.6GHz</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>六核心/六线程</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>65W</t>
+          <t>95W</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
@@ -9872,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M162" t="n">
         <v>0</v>
@@ -9884,36 +9880,46 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i9 13900KF</t>
+          <t>AMD A10-7870K</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>酷睿i9 13代系列</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
+          <t>APU A10</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Godavari</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>3GHz</t>
+          <t>3.9GHz</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>二十四核心/三十二线程</t>
+          <t>四核心/四线程</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>125W</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
+          <t>95W</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>AMD Radeon R7</t>
+        </is>
+      </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>2788</v>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -9924,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="M163" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
@@ -9936,19 +9942,23 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i5 14400F</t>
+          <t>Intel 酷睿 i9 13900</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>酷睿i5 14代系列</t>
+          <t>酷睿i9 13代系列</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2GHz</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>10核心/16线程</t>
+          <t>二十四核心/三十二线程</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -9956,12 +9966,18 @@
           <t>65W</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Intel UHD Graphics 770</t>
+        </is>
+      </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1035</v>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -9975,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -9984,42 +10000,32 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AMD A10-7890K</t>
+          <t>Intel 酷睿 i5 14400F</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>APU A10</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Godavari</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>4.1GHz</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
+          <t>酷睿i5 14代系列</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>10核心/16线程</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>95W</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>AMD Radeon R7</t>
-        </is>
-      </c>
+          <t>65W</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>价格未知</t>
-        </is>
+      <c r="I165" t="n">
+        <v>1035</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -10030,10 +10036,10 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -10042,40 +10048,34 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Intel 酷睿 i5 13400</t>
+          <t>AMD 速龙 X4 850</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>酷睿i5 13代系列</t>
+          <t>速龙 X4</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2.5GHz</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>十核心/十六线程</t>
-        </is>
-      </c>
+          <t>3.2GHz</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
           <t>65W</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Intel UHD Graphics 730</t>
-        </is>
-      </c>
+      <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1179</v>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>价格未知</t>
+        </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -10086,10 +10086,10 @@
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M166" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
